--- a/biology/Zoologie/Chrysalide/Chrysalide.xlsx
+++ b/biology/Zoologie/Chrysalide/Chrysalide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chrysalide est la nymphe des lépidoptères, c'est-à-dire le stade de développement intermédiaire entre leur larve (appelée chenille) et leur imago (stade adulte, appelé papillon).
 Le stade de chrysalide caractérise le fait que les lépidoptères sont des insectes holométaboles, c'est-à-dire à métamorphose complète. Durant ce stade, le lépidoptère ne peut se déplacer ni se nourrir, et la structure de son corps se réorganise en profondeur pour passer de la chenille, stade de croissance, au papillon, stade ailé voué à la reproduction.
